--- a/project-macro/Econ data summary July 10.xlsx
+++ b/project-macro/Econ data summary July 10.xlsx
@@ -1008,8 +1008,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="457503088"/>
-        <c:axId val="492733560"/>
+        <c:axId val="269317696"/>
+        <c:axId val="269912640"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1764,11 +1764,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="492734736"/>
-        <c:axId val="492733952"/>
+        <c:axId val="180181528"/>
+        <c:axId val="267871720"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="457503088"/>
+        <c:axId val="269317696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1821,14 +1821,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="492733560"/>
+        <c:crossAx val="269912640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="492733560"/>
+        <c:axId val="269912640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="350000"/>
@@ -1877,7 +1877,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="457503088"/>
+        <c:crossAx val="269317696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:dispUnits>
@@ -1912,7 +1912,7 @@
         </c:dispUnits>
       </c:valAx>
       <c:valAx>
-        <c:axId val="492733952"/>
+        <c:axId val="267871720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="20"/>
@@ -1952,12 +1952,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="492734736"/>
+        <c:crossAx val="180181528"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="492734736"/>
+        <c:axId val="180181528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1967,7 +1967,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="492733952"/>
+        <c:crossAx val="267871720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -2901,7 +2901,7 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3327,7 +3327,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
